--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_10.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_10.xlsx
@@ -508,344 +508,344 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_3</t>
+          <t>model_1_10_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9983577575377286</v>
+        <v>0.950064981368541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8250676942327172</v>
+        <v>0.739675552245127</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8152289501407993</v>
+        <v>0.7570956500584103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981707933044567</v>
+        <v>0.9407327929468396</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006835878091876974</v>
+        <v>0.1750477362182526</v>
       </c>
       <c r="G2" t="n">
-        <v>1.169773134155023</v>
+        <v>1.740790780820698</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6609153317053227</v>
+        <v>0.8688547753376177</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004832713507913631</v>
+        <v>0.1800013437260112</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3411701797592157</v>
+        <v>1.350420473188798</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0826793692034293</v>
+        <v>0.4183870650704353</v>
       </c>
       <c r="L2" t="n">
-        <v>1.10510351758537</v>
+        <v>0.9320033788848218</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08398148661933595</v>
+        <v>0.4249762431116689</v>
       </c>
       <c r="N2" t="n">
-        <v>139.9711406942832</v>
+        <v>37.48539312773174</v>
       </c>
       <c r="O2" t="n">
-        <v>281.3063132374996</v>
+        <v>74.44997671595756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_4</t>
+          <t>model_1_10_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9983791388499456</v>
+        <v>0.9500338075701714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8250675178231408</v>
+        <v>0.7391768349336962</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8152383948644519</v>
+        <v>0.7571404355267239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9981355630274299</v>
+        <v>0.9417048348261027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006746877808960515</v>
+        <v>0.1751570162983143</v>
       </c>
       <c r="G3" t="n">
-        <v>1.169774313806673</v>
+        <v>1.744125705778617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6608815484764538</v>
+        <v>0.8686945803142705</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004925790925621256</v>
+        <v>0.1770491404229541</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3400216384169276</v>
+        <v>1.352139869475925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08213938037847933</v>
+        <v>0.4185176415616363</v>
       </c>
       <c r="L3" t="n">
-        <v>1.103735113603484</v>
+        <v>0.9319609294572547</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08343299351018379</v>
+        <v>0.4251088760520777</v>
       </c>
       <c r="N3" t="n">
-        <v>139.9973508558523</v>
+        <v>37.48414494268772</v>
       </c>
       <c r="O3" t="n">
-        <v>281.3325233990687</v>
+        <v>74.44872853091354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_9</t>
+          <t>model_1_10_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985193127738107</v>
+        <v>0.9499219435709887</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8250077205514379</v>
+        <v>0.7379026545690528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8158295001661794</v>
+        <v>0.7571407273473747</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99767004127973</v>
+        <v>0.9444456244622668</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006163400108672159</v>
+        <v>0.1755491567311791</v>
       </c>
       <c r="G4" t="n">
-        <v>1.170174178437892</v>
+        <v>1.75264615574405</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6587671990864292</v>
+        <v>0.8686935364887234</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006155686510312807</v>
+        <v>0.1687250461740493</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3331471630666246</v>
+        <v>1.357110169780753</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07850732519117028</v>
+        <v>0.4189858669826216</v>
       </c>
       <c r="L4" t="n">
-        <v>1.094763982476117</v>
+        <v>0.9318086040115591</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0797437370843978</v>
+        <v>0.4255844755553899</v>
       </c>
       <c r="N4" t="n">
-        <v>140.1782533760404</v>
+        <v>37.47967235992247</v>
       </c>
       <c r="O4" t="n">
-        <v>281.5134259192568</v>
+        <v>74.4442559481483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_8</t>
+          <t>model_1_10_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9985006132155145</v>
+        <v>0.9498198424662404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8250005645371119</v>
+        <v>0.737145667762707</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8158768374212844</v>
+        <v>0.7570935596214828</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9977074291627669</v>
+        <v>0.9461751600749069</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00624123751929872</v>
+        <v>0.1759070732342943</v>
       </c>
       <c r="G5" t="n">
-        <v>1.17022203073864</v>
+        <v>1.757708130003688</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6585978764696906</v>
+        <v>0.8688622527092965</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00605690875718895</v>
+        <v>0.163472247033068</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3342153569998999</v>
+        <v>1.360386854115249</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07900150327239805</v>
+        <v>0.419412771901732</v>
       </c>
       <c r="L5" t="n">
-        <v>1.09596075420707</v>
+        <v>0.931669572719987</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08024569797640807</v>
+        <v>0.4260181038002279</v>
       </c>
       <c r="N5" t="n">
-        <v>140.1531535917265</v>
+        <v>37.47559883273666</v>
       </c>
       <c r="O5" t="n">
-        <v>281.4883261349429</v>
+        <v>74.44018242096249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_7</t>
+          <t>model_1_10_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9984898078528368</v>
+        <v>0.9497677502566001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8249579375825231</v>
+        <v>0.7368428486550477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8160866982878371</v>
+        <v>0.7570310985947687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9977521284999646</v>
+        <v>0.9469425151731856</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00628621512991385</v>
+        <v>0.1760896830264211</v>
       </c>
       <c r="G6" t="n">
-        <v>1.170507077380254</v>
+        <v>1.759733082770959</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6578472163184637</v>
+        <v>0.8690856721801545</v>
       </c>
       <c r="I6" t="n">
-        <v>0.005938814344350672</v>
+        <v>0.161141701092523</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3334889927989613</v>
+        <v>1.361915142655195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.079285655259409</v>
+        <v>0.4196304124183816</v>
       </c>
       <c r="L6" t="n">
-        <v>1.096652297418444</v>
+        <v>0.9315986386472852</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08053432507316666</v>
+        <v>0.426239171937454</v>
       </c>
       <c r="N6" t="n">
-        <v>140.1387922350688</v>
+        <v>37.47352370215366</v>
       </c>
       <c r="O6" t="n">
-        <v>281.4739647782853</v>
+        <v>74.43810729037948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_6</t>
+          <t>model_1_10_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9984642356522688</v>
+        <v>0.9497593195889525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8248965697379006</v>
+        <v>0.7368005811718898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8161309970154317</v>
+        <v>0.7569852054126757</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9977480253562871</v>
+        <v>0.9471466676466793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006392660097474762</v>
+        <v>0.1761192368210718</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170917444439817</v>
+        <v>1.760015725625459</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6576887623384458</v>
+        <v>0.8692498294314617</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005949654736485416</v>
+        <v>0.1605216664834873</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3353541606330899</v>
+        <v>1.362367176671742</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0799541124487963</v>
+        <v>0.4196656250171937</v>
       </c>
       <c r="L7" t="n">
-        <v>1.098288918254795</v>
+        <v>0.9315871585892119</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08121330979507475</v>
+        <v>0.4262749390994977</v>
       </c>
       <c r="N7" t="n">
-        <v>140.105209613066</v>
+        <v>37.47318806278673</v>
       </c>
       <c r="O7" t="n">
-        <v>281.4403821562824</v>
+        <v>74.43777165101255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_10_5</t>
+          <t>model_1_10_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9984656935319375</v>
+        <v>0.9497524352217922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8247913773605642</v>
+        <v>0.7367712275916627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8156358768125982</v>
+        <v>0.756932772133425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9977942492061026</v>
+        <v>0.9473560373320243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006386591634433546</v>
+        <v>0.176143370043002</v>
       </c>
       <c r="G8" t="n">
-        <v>1.171620866351433</v>
+        <v>1.760212013151599</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6594597785952621</v>
+        <v>0.8694373802310851</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005827532603467194</v>
+        <v>0.1598857866003033</v>
       </c>
       <c r="J8" t="n">
-        <v>0.335921928738457</v>
+        <v>1.362847026597356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07991615377652722</v>
+        <v>0.4196943769494679</v>
       </c>
       <c r="L8" t="n">
-        <v>1.098195613956001</v>
+        <v>0.9315777841318021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08117475331166221</v>
+        <v>0.4263041438459638</v>
       </c>
       <c r="N8" t="n">
-        <v>140.107109086877</v>
+        <v>37.47291402607097</v>
       </c>
       <c r="O8" t="n">
-        <v>281.4422816300934</v>
+        <v>74.43749761429679</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9981514325273981</v>
+        <v>0.9497099746243381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8246154578660245</v>
+        <v>0.7365586328395057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8150167891036785</v>
+        <v>0.7569307500194261</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9982404211021035</v>
+        <v>0.9477139052048416</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007694711455601887</v>
+        <v>0.1762922161166894</v>
       </c>
       <c r="G9" t="n">
-        <v>1.172797240821454</v>
+        <v>1.761633635238182</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6616742194333003</v>
+        <v>0.8694446132156102</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004648758791896981</v>
+        <v>0.1587989005939207</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3540457154566291</v>
+        <v>1.363529822530165</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08771950441949548</v>
+        <v>0.4198716662465918</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11830831824652</v>
+        <v>0.9315199654459073</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08910099892676837</v>
+        <v>0.4264842252722931</v>
       </c>
       <c r="N9" t="n">
-        <v>139.7344440200839</v>
+        <v>37.47122468380949</v>
       </c>
       <c r="O9" t="n">
-        <v>281.0696165633003</v>
+        <v>74.43580827203532</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.998081176041142</v>
+        <v>0.9496653265164304</v>
       </c>
       <c r="C10" t="n">
-        <v>0.824558476083032</v>
+        <v>0.7363475613430466</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8148621404438569</v>
+        <v>0.7569321997664533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9982188540907915</v>
+        <v>0.9480657056261682</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007987155955268724</v>
+        <v>0.1764487305314204</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173178278266702</v>
+        <v>1.763045071306899</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6622273887224375</v>
+        <v>0.8694394275545552</v>
       </c>
       <c r="I10" t="n">
-        <v>0.004705738239406767</v>
+        <v>0.1577304421375373</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3588488733210892</v>
+        <v>1.364204081673818</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08937088986503784</v>
+        <v>0.4200580085314651</v>
       </c>
       <c r="L10" t="n">
-        <v>1.122804733366912</v>
+        <v>0.9314591680223734</v>
       </c>
       <c r="M10" t="n">
-        <v>0.09077839204229822</v>
+        <v>0.4266735022618792</v>
       </c>
       <c r="N10" t="n">
-        <v>139.6598410661979</v>
+        <v>37.46944984676276</v>
       </c>
       <c r="O10" t="n">
-        <v>280.9950136094143</v>
+        <v>74.43403343498858</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.997742456361974</v>
+        <v>0.9496464197721046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8240033688317273</v>
+        <v>0.7362679968299297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8154030650108195</v>
+        <v>0.7569079474912179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980630070749638</v>
+        <v>0.9482514836817065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.009397085662547908</v>
+        <v>0.1765150083237229</v>
       </c>
       <c r="G11" t="n">
-        <v>1.176890283012211</v>
+        <v>1.763577119572473</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6602925329110205</v>
+        <v>0.8695261765368445</v>
       </c>
       <c r="I11" t="n">
-        <v>0.005117481745700389</v>
+        <v>0.1571662127551452</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3724882539535783</v>
+        <v>1.364628742830438</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09693856643538684</v>
+        <v>0.4201368923621477</v>
       </c>
       <c r="L11" t="n">
-        <v>1.144482792833664</v>
+        <v>0.9314334226683978</v>
       </c>
       <c r="M11" t="n">
-        <v>0.098465251953729</v>
+        <v>0.4267536284340401</v>
       </c>
       <c r="N11" t="n">
-        <v>139.3347113473528</v>
+        <v>37.46869874645657</v>
       </c>
       <c r="O11" t="n">
-        <v>280.6698838905692</v>
+        <v>74.4332823346824</v>
       </c>
     </row>
   </sheetData>
